--- a/training_spacy/intent_data.xlsx
+++ b/training_spacy/intent_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaarmstrong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaarmstrong/Desktop/contingent-plan-executor/training_spacy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B390219-1D7C-BC42-B8C6-C18F7F2C1887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27418A1-8997-C243-AA95-368F9C62118F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{0035BE3F-1E58-874C-B2FD-8BA3574D7306}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16440" xr2:uid="{0035BE3F-1E58-874C-B2FD-8BA3574D7306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t>"I can do activities with a high budget."</t>
   </si>
   <si>
-    <t>"What is the most $outing_type place in the city?"</t>
-  </si>
-  <si>
     <r>
       <t>"I would prefer a relaxing atmosphere today."</t>
     </r>
@@ -209,8 +206,20 @@
     </r>
   </si>
   <si>
+    <t>"I need help fixing my phone."</t>
+  </si>
+  <si>
+    <t>"Where is the nearest airport?"</t>
+  </si>
+  <si>
+    <t>"My address is 123 Westwind."</t>
+  </si>
+  <si>
+    <t>"What is the most chill place in the city?"</t>
+  </si>
+  <si>
     <r>
-      <t>"I want to go to a  place."</t>
+      <t>"I want to go to a fun place."</t>
     </r>
     <r>
       <rPr>
@@ -221,15 +230,6 @@
       </rPr>
       <t>,</t>
     </r>
-  </si>
-  <si>
-    <t>"I need help fixing my phone."</t>
-  </si>
-  <si>
-    <t>"Where is the nearest airport?"</t>
-  </si>
-  <si>
-    <t>"My address is 123 Westwind."</t>
   </si>
 </sst>
 </file>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE64575-9834-AC4F-8CE4-DF19021BC1B3}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>0</v>

--- a/training_spacy/intent_data.xlsx
+++ b/training_spacy/intent_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaarmstrong/Desktop/contingent-plan-executor/training_spacy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27418A1-8997-C243-AA95-368F9C62118F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EE2384-F708-FF49-BB91-EA15B2EC5D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16440" xr2:uid="{0035BE3F-1E58-874C-B2FD-8BA3574D7306}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>confirm</t>
   </si>
@@ -114,15 +114,6 @@
   </si>
   <si>
     <t>"no thanks"</t>
-  </si>
-  <si>
-    <t>"My phone number is 987-654-3210."</t>
-  </si>
-  <si>
-    <t>"987-654-3210"</t>
-  </si>
-  <si>
-    <t>"My number is 987-654-3210."</t>
   </si>
   <si>
     <t>"I live in Toronto."</t>
@@ -231,12 +222,42 @@
       <t>,</t>
     </r>
   </si>
+  <si>
+    <t>"My phone number is 6136042678."</t>
+  </si>
+  <si>
+    <t>"My number is 9264738154."</t>
+  </si>
+  <si>
+    <t>"273 574 1093"</t>
+  </si>
+  <si>
+    <t>"My number is 628 536 1728."</t>
+  </si>
+  <si>
+    <t>"My phone number is 098 273 1836."</t>
+  </si>
+  <si>
+    <t>"647-253-2798"</t>
+  </si>
+  <si>
+    <t>"My number is 203-647-2839."</t>
+  </si>
+  <si>
+    <t>"My phone number is 109-282-3526."</t>
+  </si>
+  <si>
+    <t>"6133992081"</t>
+  </si>
+  <si>
+    <t>"N"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,6 +276,13 @@
       <color rgb="FF6AAB73"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -277,9 +305,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE64575-9834-AC4F-8CE4-DF19021BC1B3}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1152,7 +1181,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1187,16 +1216,16 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1222,16 +1251,16 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1257,7 +1286,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1292,7 +1321,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1301,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1327,7 +1356,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1336,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1362,7 +1391,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1397,7 +1426,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1409,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1461,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1444,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1467,7 +1496,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1502,7 +1531,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1517,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1537,7 +1566,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1552,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1572,7 +1601,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1607,7 +1636,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1625,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1642,7 +1671,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1660,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1677,7 +1706,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1712,7 +1741,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1733,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1747,7 +1776,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1768,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1782,7 +1811,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1817,7 +1846,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1841,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1852,7 +1881,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1876,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -1887,7 +1916,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1922,7 +1951,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1949,15 +1978,15 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1984,45 +2013,325 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
